--- a/docs/resource/ApartmentLocation2018-05-07.xlsx
+++ b/docs/resource/ApartmentLocation2018-05-07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PythonProjects\McMasterGradStuManual\docs\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B51127-0E71-4D58-A46F-5982984CB313}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77792B2F-CF85-4E58-913F-238E07A2B36D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17385" xr2:uid="{5DEBA4B1-7EA9-4F54-9729-F2E2627657AD}"/>
   </bookViews>
@@ -1148,8 +1148,8 @@
   <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/docs/resource/ApartmentLocation2018-05-07.xlsx
+++ b/docs/resource/ApartmentLocation2018-05-07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PythonProjects\McMasterGradStuManual\docs\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77792B2F-CF85-4E58-913F-238E07A2B36D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B51127-0E71-4D58-A46F-5982984CB313}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17385" xr2:uid="{5DEBA4B1-7EA9-4F54-9729-F2E2627657AD}"/>
   </bookViews>
@@ -1148,8 +1148,8 @@
   <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
